--- a/_docs/new_example.xlsx
+++ b/_docs/new_example.xlsx
@@ -76,13 +76,13 @@
     <t>mutta ; kun taas</t>
   </si>
   <si>
-    <t>aBi || api ; &lt;Hev&gt; &lt;Ro&gt; api ||  ; &lt;Ro&gt; apṕē || app'ee</t>
-  </si>
-  <si>
-    <t>aBihua || apihua</t>
-  </si>
-  <si>
-    <t>anttikristuZ || anttikristuz</t>
+    <t>aBihua = apihua</t>
+  </si>
+  <si>
+    <t>anttikristuZ = anttikristuz</t>
+  </si>
+  <si>
+    <t>aBi = api ; &lt;Hev&gt; &lt;Ro&gt; api = api  ; &lt;Ro&gt; apṕē = app'ee</t>
   </si>
 </sst>
 </file>
@@ -427,18 +427,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -450,29 +452,29 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -483,10 +485,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -499,10 +501,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -515,10 +517,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
